--- a/downloaded_files/AERS339_Lecture-35865.xlsx
+++ b/downloaded_files/AERS339_Lecture-35865.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>ahmed samer</x:t>
   </x:si>
   <x:si>
+    <x:t>4240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عبدالمحسن عبدالمقصود عبدالجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed abdelmohsen</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230147</x:t>
   </x:si>
   <x:si>
@@ -94,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Talaat Mostafa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن هانى توفيق محمد حبيش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Hany Tawfik Mohamed Hebish</x:t>
   </x:si>
   <x:si>
     <x:t>1230078</x:t>
@@ -263,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -572,7 +590,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.040625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="38.530625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="39.910625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -750,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45927.5751118056</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -782,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6658456829</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.5226064815</x:v>
+        <x:v>45907.6658456829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4144429745</x:v>
+        <x:v>45927.4339270833</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.5226064815</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4144429745</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4163510417</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1073,70 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45907.4163510417</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45907.4157517361</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS339_Lecture-35865.xlsx
+++ b/downloaded_files/AERS339_Lecture-35865.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>MARINA REMON SAMIR ZAKARIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايا احمد رضا سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maya Ahmed Reda</x:t>
   </x:si>
   <x:si>
     <x:t>4240049</x:t>
@@ -281,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1024,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45927.9387565972</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4163510417</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45907.4163510417</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1146,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45907.4157517361</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS339_Lecture-35865.xlsx
+++ b/downloaded_files/AERS339_Lecture-35865.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Nagham Raouf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل حامد محمد علي هزاع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Adel Hamed Mohammed Ali Hazaa</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45907.4157517361</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
